--- a/biology/Zoologie/Bupreste_de_Crau/Bupreste_de_Crau.xlsx
+++ b/biology/Zoologie/Bupreste_de_Crau/Bupreste_de_Crau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acmaeoderella cyanipennis perroti
 Le bupreste de Crau (Acmaeoderella cyanipennis perroti) est une espèce de coléoptères, endémique de la plaine de la Crau, qui se développe sur les chardons (Chardon d’Illyrie ou Chardon aux ânes, Onopordum illyricum). Les adultes se trouvent sur ces fleurs en juin et en juillet.
